--- a/data/trans_orig/P14C27-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C27-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{107BE7A8-6CE6-4A4D-B554-7C5E172F8E59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EFD4D5E-EC54-4261-9CEA-676E07E79DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{9AB8587C-8D73-4D38-8BE8-E3B8575F7EC0}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03654717-CE24-4B7A-83BF-FD4A3E2CF577}"/>
   </bookViews>
   <sheets>
     <sheet name="2015" sheetId="2" r:id="rId1"/>
@@ -83,19 +83,19 @@
     <t>65,42%</t>
   </si>
   <si>
-    <t>50,04%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
+    <t>49,81%</t>
+  </si>
+  <si>
+    <t>77,61%</t>
   </si>
   <si>
     <t>65,04%</t>
   </si>
   <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -113,19 +113,19 @@
     <t>26,56%</t>
   </si>
   <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>42,24%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -143,19 +143,16 @@
     <t>8,02%</t>
   </si>
   <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>18,43%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
+    <t>2,78%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,79 +164,79 @@
     <t>60,3%</t>
   </si>
   <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
+    <t>27,84%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
   </si>
   <si>
     <t>40,33%</t>
   </si>
   <si>
-    <t>20,81%</t>
-  </si>
-  <si>
-    <t>64,77%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>64,9%</t>
   </si>
   <si>
     <t>47,32%</t>
   </si>
   <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>65,24%</t>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>66,23%</t>
   </si>
   <si>
     <t>29,18%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>62,3%</t>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>61,72%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>60,51%</t>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>59,37%</t>
   </si>
   <si>
     <t>33,27%</t>
   </si>
   <si>
-    <t>18,15%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
+    <t>18,06%</t>
+  </si>
+  <si>
+    <t>53,88%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>46,74%</t>
+    <t>53,03%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>48,55%</t>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
   </si>
   <si>
     <t>19,41%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -299,76 +296,79 @@
     <t>60,95%</t>
   </si>
   <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>70,74%</t>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
   </si>
   <si>
     <t>60,05%</t>
   </si>
   <si>
-    <t>69,06%</t>
+    <t>50,25%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>50,79%</t>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>49,95%</t>
   </si>
   <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>40,89%</t>
+    <t>18,92%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>21,85%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>39,7%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>21,61%</t>
+    <t>19,36%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>19,86%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -783,7 +783,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDC74DFB-D292-4CB3-891A-0BA957B5E511}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7C3F3B-DD45-454C-B725-F3BBC4571619}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1045,7 +1045,7 @@
         <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1060,13 +1060,13 @@
         <v>18058</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -1075,13 +1075,13 @@
         <v>52345</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -1090,18 +1090,18 @@
         <v>70403</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1113,13 +1113,13 @@
         <v>6075</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -1128,13 +1128,13 @@
         <v>7550</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>46</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -1143,13 +1143,13 @@
         <v>13624</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1164,13 +1164,13 @@
         <v>2940</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>52</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -1179,13 +1179,13 @@
         <v>6641</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K9" s="7" t="s">
+      <c r="L9" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -1194,13 +1194,13 @@
         <v>9581</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1215,13 +1215,13 @@
         <v>1059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1230,13 +1230,13 @@
         <v>4531</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1245,13 +1245,13 @@
         <v>5590</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1266,13 +1266,13 @@
         <v>10075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -1281,13 +1281,13 @@
         <v>18721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -1296,18 +1296,18 @@
         <v>28795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1319,13 +1319,13 @@
         <v>1809</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -1334,13 +1334,13 @@
         <v>4224</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="7" t="s">
-        <v>72</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -1349,13 +1349,13 @@
         <v>6032</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1370,13 +1370,13 @@
         <v>1938</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1385,13 +1385,13 @@
         <v>1819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1400,13 +1400,13 @@
         <v>3757</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1424,10 +1424,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1439,10 +1439,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1454,10 +1454,10 @@
         <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1472,13 +1472,13 @@
         <v>3747</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -1487,13 +1487,13 @@
         <v>6043</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -1502,13 +1502,13 @@
         <v>9789</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,13 +1525,13 @@
         <v>19429</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -1540,13 +1540,13 @@
         <v>46018</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -1555,10 +1555,10 @@
         <v>65447</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q16" s="7" t="s">
         <v>93</v>
@@ -1678,13 +1678,13 @@
         <v>31879</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -1693,13 +1693,13 @@
         <v>77108</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -1708,13 +1708,13 @@
         <v>108988</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P14C27-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14C27-Estudios-trans_orig.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EFD4D5E-EC54-4261-9CEA-676E07E79DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5825AF32-215B-443E-8442-FC407E74D820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{03654717-CE24-4B7A-83BF-FD4A3E2CF577}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7863953E-E68B-47BA-85A6-8CF9C515E4A9}"/>
   </bookViews>
   <sheets>
-    <sheet name="2015" sheetId="2" r:id="rId1"/>
+    <sheet name="2016" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="112">
-  <si>
-    <t>Población según el tiempo de diagnóstico del cataratas en 2015 (Tasa respuesta: 1,54%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="113">
+  <si>
+    <t>Población según el tiempo de diagnóstico del cataratas en 2016 (Tasa respuesta: 1,54%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -74,28 +74,28 @@
     <t>63,93%</t>
   </si>
   <si>
-    <t>42,28%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
+    <t>39,04%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
   </si>
   <si>
     <t>65,42%</t>
   </si>
   <si>
-    <t>49,81%</t>
-  </si>
-  <si>
-    <t>77,61%</t>
+    <t>50,09%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
   </si>
   <si>
     <t>65,04%</t>
   </si>
   <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>75,57%</t>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
   </si>
   <si>
     <t>De 1 a 4 años</t>
@@ -104,28 +104,28 @@
     <t>31,07%</t>
   </si>
   <si>
-    <t>13,16%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>56,09%</t>
   </si>
   <si>
     <t>26,56%</t>
   </si>
   <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>42,24%</t>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>40,59%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
   </si>
   <si>
     <t>Ultimos 12 meses</t>
@@ -137,22 +137,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>31,37%</t>
+    <t>31,13%</t>
   </si>
   <si>
     <t>8,02%</t>
   </si>
   <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>18,43%</t>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
   </si>
   <si>
     <t>7,24%</t>
   </si>
   <si>
-    <t>2,78%</t>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>15,3%</t>
   </si>
   <si>
     <t>100%</t>
@@ -164,79 +167,79 @@
     <t>60,3%</t>
   </si>
   <si>
-    <t>27,84%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
   </si>
   <si>
     <t>40,33%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>64,9%</t>
+    <t>18,5%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
   </si>
   <si>
     <t>47,32%</t>
   </si>
   <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>66,23%</t>
+    <t>28,42%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
   </si>
   <si>
     <t>29,18%</t>
   </si>
   <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>61,72%</t>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>61,38%</t>
   </si>
   <si>
     <t>35,47%</t>
   </si>
   <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>59,37%</t>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>59,95%</t>
   </si>
   <si>
     <t>33,27%</t>
   </si>
   <si>
-    <t>18,06%</t>
-  </si>
-  <si>
-    <t>53,88%</t>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>53,34%</t>
   </si>
   <si>
     <t>10,51%</t>
   </si>
   <si>
-    <t>53,03%</t>
+    <t>53,79%</t>
   </si>
   <si>
     <t>24,2%</t>
   </si>
   <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>48,97%</t>
   </si>
   <si>
     <t>19,41%</t>
   </si>
   <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>39,37%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -257,10 +260,10 @@
     <t>61,62%</t>
   </si>
   <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
   </si>
   <si>
     <t>51,72%</t>
@@ -275,10 +278,10 @@
     <t>38,38%</t>
   </si>
   <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
   </si>
   <si>
     <t>0%</t>
@@ -296,79 +299,79 @@
     <t>60,95%</t>
   </si>
   <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>77,48%</t>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>76,16%</t>
   </si>
   <si>
     <t>59,68%</t>
   </si>
   <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
+    <t>47,77%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
   </si>
   <si>
     <t>60,05%</t>
   </si>
   <si>
-    <t>50,25%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
+    <t>49,52%</t>
+  </si>
+  <si>
+    <t>69,02%</t>
   </si>
   <si>
     <t>32,9%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>49,95%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
   </si>
   <si>
     <t>29,0%</t>
   </si>
   <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>41,48%</t>
   </si>
   <si>
     <t>30,14%</t>
   </si>
   <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>39,7%</t>
+    <t>22,09%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
   </si>
   <si>
     <t>6,15%</t>
   </si>
   <si>
-    <t>19,36%</t>
+    <t>18,36%</t>
   </si>
   <si>
     <t>11,32%</t>
   </si>
   <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>19,86%</t>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
   </si>
   <si>
     <t>9,81%</t>
   </si>
   <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -783,7 +786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7C3F3B-DD45-454C-B725-F3BBC4571619}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7A28711-D2B3-4499-9C9F-46174A887A1A}">
   <dimension ref="A1:Q20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1045,7 +1048,7 @@
         <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1060,13 +1063,13 @@
         <v>18058</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H7" s="7">
         <v>45</v>
@@ -1075,13 +1078,13 @@
         <v>52345</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -1090,18 +1093,18 @@
         <v>70403</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1113,13 +1116,13 @@
         <v>6075</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="7">
         <v>7</v>
@@ -1128,13 +1131,13 @@
         <v>7550</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M8" s="7">
         <v>13</v>
@@ -1143,13 +1146,13 @@
         <v>13624</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1164,13 +1167,13 @@
         <v>2940</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>6</v>
@@ -1179,13 +1182,13 @@
         <v>6641</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>9</v>
@@ -1194,13 +1197,13 @@
         <v>9581</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1215,13 +1218,13 @@
         <v>1059</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H10" s="7">
         <v>4</v>
@@ -1230,13 +1233,13 @@
         <v>4531</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -1245,13 +1248,13 @@
         <v>5590</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1266,13 +1269,13 @@
         <v>10075</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -1281,13 +1284,13 @@
         <v>18721</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M11" s="7">
         <v>27</v>
@@ -1296,18 +1299,18 @@
         <v>28795</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1319,13 +1322,13 @@
         <v>1809</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H12" s="7">
         <v>4</v>
@@ -1334,13 +1337,13 @@
         <v>4224</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>6</v>
@@ -1349,13 +1352,13 @@
         <v>6032</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1370,13 +1373,13 @@
         <v>1938</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>1</v>
@@ -1385,13 +1388,13 @@
         <v>1819</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>3</v>
@@ -1400,13 +1403,13 @@
         <v>3757</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1424,10 +1427,10 @@
         <v>32</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1439,10 +1442,10 @@
         <v>32</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>0</v>
@@ -1454,10 +1457,10 @@
         <v>32</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1472,13 +1475,13 @@
         <v>3747</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H15" s="7">
         <v>5</v>
@@ -1487,13 +1490,13 @@
         <v>6043</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M15" s="7">
         <v>9</v>
@@ -1502,13 +1505,13 @@
         <v>9789</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1525,13 +1528,13 @@
         <v>19429</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H16" s="7">
         <v>40</v>
@@ -1540,13 +1543,13 @@
         <v>46018</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>61</v>
@@ -1555,13 +1558,13 @@
         <v>65447</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1576,13 +1579,13 @@
         <v>10489</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>19</v>
@@ -1591,13 +1594,13 @@
         <v>22363</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>30</v>
@@ -1606,13 +1609,13 @@
         <v>32853</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1627,13 +1630,13 @@
         <v>1961</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>32</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H18" s="7">
         <v>8</v>
@@ -1642,13 +1645,13 @@
         <v>8727</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M18" s="7">
         <v>10</v>
@@ -1657,13 +1660,13 @@
         <v>10688</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1678,13 +1681,13 @@
         <v>31879</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -1693,13 +1696,13 @@
         <v>77108</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M19" s="7">
         <v>101</v>
@@ -1708,18 +1711,18 @@
         <v>108988</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
